--- a/hissue.xlsx
+++ b/hissue.xlsx
@@ -61,7 +61,7 @@
     <t>Priyesh Bhawsar</t>
   </si>
   <si>
-    <t>['Heart failure with hospital admission in past one year']</t>
+    <t>[]</t>
   </si>
 </sst>
 </file>
